--- a/10550_0020.xlsx
+++ b/10550_0020.xlsx
@@ -5992,256 +5992,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId235"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="236" name="Image 236" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId236"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="237" name="Image 237" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId237"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="238" name="Image 238" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId238"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="239" name="Image 239" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId239"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>612</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="240" name="Image 240" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId240"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="241" name="Image 241" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId241"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="242" name="Image 242" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId242"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="243" name="Image 243" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId243"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="244" name="Image 244" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId244"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>625</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="245" name="Image 245" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId245"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6544,7 +6294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7591,14 +7341,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>105.6047547_0.8384163_10550_0020_24</t>
+          <t>105.4839160_0.8152500_10550_0020_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.6047547</v>
+        <v>105.483916</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8384163</v>
+        <v>0.81525</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -7607,41 +7357,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/105.6047547,0.8384163_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/105.6047547,0.8384163_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/105.6047547,0.8384163_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/105.6047547,0.8384163_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/105.6047547,0.8384163_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>105.4839160_0.8152500_10550_0020_25</t>
+          <t>105.6207551_0.8000829_10550_0020_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105.483916</v>
+        <v>105.6207551</v>
       </c>
       <c r="C26" t="n">
-        <v>0.81525</v>
+        <v>0.8000829</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -7650,41 +7400,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>105.6207551_0.8000829_10550_0020_26</t>
+          <t>105.5130838_0.6707500_10550_0020_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.6207551</v>
+        <v>105.5130838</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8000829</v>
+        <v>0.67075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -7693,41 +7443,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>105.5130838_0.6707500_10550_0020_27</t>
+          <t>105.5319176_0.5567500_10550_0020_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.5130838</v>
+        <v>105.5319176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.67075</v>
+        <v>0.55675</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7736,41 +7486,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>105.5319176_0.5567500_10550_0020_28</t>
+          <t>105.5240841_0.6047500_10550_0020_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105.5319176</v>
+        <v>105.5240841</v>
       </c>
       <c r="C29" t="n">
-        <v>0.55675</v>
+        <v>0.60475</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -7779,41 +7529,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>105.5240841_0.6047500_10550_0020_29</t>
+          <t>105.4732496_0.3519166_10550_0020_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.5240841</v>
+        <v>105.4732496</v>
       </c>
       <c r="C30" t="n">
-        <v>0.60475</v>
+        <v>0.3519166</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -7822,41 +7572,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>105.4732496_0.3519166_10550_0020_30</t>
+          <t>105.4365838_-0.0332501_10550_0020_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.4732496</v>
+        <v>105.4365838</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3519166</v>
+        <v>-0.0332501</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -7865,41 +7615,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>105.4365838_-0.0332501_10550_0020_31</t>
+          <t>105.3889170_0.0470830_10550_0020_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.4365838</v>
+        <v>105.388917</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0332501</v>
+        <v>0.047083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -7908,41 +7658,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>105.3889170_0.0470830_10550_0020_32</t>
+          <t>105.4277499_0.1277498_10550_0020_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.388917</v>
+        <v>105.4277499</v>
       </c>
       <c r="C33" t="n">
-        <v>0.047083</v>
+        <v>0.1277498</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -7951,41 +7701,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>105.4984167_0.0687500_10550_0020_33</t>
+          <t>105.3647485_0.2809161_10550_0020_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.4984167</v>
+        <v>105.3647485</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06875000000000001</v>
+        <v>0.2809161</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -7994,41 +7744,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/105.4984167,0.0687500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/105.4984167,0.0687500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/105.4984167,0.0687500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/105.4984167,0.0687500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/105.4984167,0.0687500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>105.4277499_0.1277498_10550_0020_34</t>
+          <t>105.2984131_0.3884154_10550_0020_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105.4277499</v>
+        <v>105.2984131</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1277498</v>
+        <v>0.3884154</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -8037,41 +7787,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>105.3647485_0.2809161_10550_0020_35</t>
+          <t>105.3749015_0.4830706_10550_0020_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105.3647485</v>
+        <v>105.3749015</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2809161</v>
+        <v>0.4830706</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -8080,41 +7830,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>105.2984131_0.3884154_10550_0020_36</t>
+          <t>105.2675763_0.5982484_10550_0020_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.2984131</v>
+        <v>105.2675763</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3884154</v>
+        <v>0.5982484</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -8123,41 +7873,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>105.3749015_0.4830706_10550_0020_37</t>
+          <t>105.2842428_0.6497486_10550_0020_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.3749015</v>
+        <v>105.2842428</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4830706</v>
+        <v>0.6497486</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -8166,41 +7916,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>105.2675763_0.5982484_10550_0020_38</t>
+          <t>105.3760782_0.7864162_10550_0020_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>105.2675763</v>
+        <v>105.3760782</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5982484</v>
+        <v>0.7864162</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -8209,41 +7959,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>105.2842428_0.6497486_10550_0020_39</t>
+          <t>105.4372473_0.8130832_10550_0020_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.2842428</v>
+        <v>105.4372473</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6497486</v>
+        <v>0.8130832</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -8252,41 +8002,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>105.3760782_0.7864162_10550_0020_40</t>
+          <t>105.2904077_0.8015820_10550_0020_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.3760782</v>
+        <v>105.2904077</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7864162</v>
+        <v>0.801582</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -8295,41 +8045,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>105.4372473_0.8130832_10550_0020_41</t>
+          <t>105.1085860_-0.0124213_10550_0020_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>105.4372473</v>
+        <v>105.108586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8130832</v>
+        <v>-0.0124213</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -8338,41 +8088,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>105.2904077_0.8015820_10550_0020_42</t>
+          <t>105.0619031_0.6087441_10550_0020_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.2904077</v>
+        <v>105.0619031</v>
       </c>
       <c r="C43" t="n">
-        <v>0.801582</v>
+        <v>0.6087441</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -8381,41 +8131,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>105.1085860_-0.0124213_10550_0020_43</t>
+          <t>105.0612332_0.7272441_10550_0020_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.108586</v>
+        <v>105.0612332</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0124213</v>
+        <v>0.7272440999999999</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -8424,41 +8174,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>105.0619031_0.6087441_10550_0020_44</t>
+          <t>105.4472489_0.4460832_10550_0020_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>105.0619031</v>
+        <v>105.4472489</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6087441</v>
+        <v>0.4460832</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -8467,41 +8217,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>105.0612332_0.7272441_10550_0020_45</t>
+          <t>105.7475907_0.5892481_10550_0020_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.0612332</v>
+        <v>105.7475907</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7272440999999999</v>
+        <v>0.5892481000000001</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -8510,41 +8260,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>105.4472489_0.4460832_10550_0020_46</t>
+          <t>105.2143821_0.0171942_10550_0020_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>105.4472489</v>
+        <v>105.2143821</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4460832</v>
+        <v>0.0171942</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -8553,41 +8303,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>105.7475907_0.5892481_10550_0020_47</t>
+          <t>105.5711048_0.4856490_10550_0020_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>105.7475907</v>
+        <v>105.5711048</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5892481000000001</v>
+        <v>0.485649</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -8596,111 +8346,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
-        <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>105.2143821_0.0171942_10550_0020_48</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>105.2143821</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0171942</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>105.5711048_0.4856490_10550_0020_49</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>105.5711048</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.485649</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
         <is>
           <t>cuts/105.5711048,0.4856490_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
@@ -8717,7 +8381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R626"/>
+  <dimension ref="A1:R600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8933,182 +8597,168 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>105.6047547_0.8384163_10550_0020_24</t>
+          <t>105.4839160_0.8152500_10550_0020_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>105.4839160_0.8152500_10550_0020_25</t>
+          <t>105.6207551_0.8000829_10550_0020_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>105.6207551_0.8000829_10550_0020_26</t>
+          <t>105.5130838_0.6707500_10550_0020_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>105.5130838_0.6707500_10550_0020_27</t>
+          <t>105.5319176_0.5567500_10550_0020_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>105.5319176_0.5567500_10550_0020_28</t>
+          <t>105.5240841_0.6047500_10550_0020_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>105.5240841_0.6047500_10550_0020_29</t>
+          <t>105.4732496_0.3519166_10550_0020_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>105.4732496_0.3519166_10550_0020_30</t>
+          <t>105.4365838_-0.0332501_10550_0020_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>105.4365838_-0.0332501_10550_0020_31</t>
+          <t>105.3889170_0.0470830_10550_0020_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>105.3889170_0.0470830_10550_0020_32</t>
+          <t>105.4277499_0.1277498_10550_0020_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>105.4984167_0.0687500_10550_0020_33</t>
+          <t>105.3647485_0.2809161_10550_0020_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>105.4277499_0.1277498_10550_0020_34</t>
+          <t>105.2984131_0.3884154_10550_0020_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>105.3647485_0.2809161_10550_0020_35</t>
+          <t>105.3749015_0.4830706_10550_0020_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>105.2984131_0.3884154_10550_0020_36</t>
+          <t>105.2675763_0.5982484_10550_0020_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>105.3749015_0.4830706_10550_0020_37</t>
+          <t>105.2842428_0.6497486_10550_0020_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>105.2675763_0.5982484_10550_0020_38</t>
+          <t>105.3760782_0.7864162_10550_0020_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>105.2842428_0.6497486_10550_0020_39</t>
+          <t>105.4372473_0.8130832_10550_0020_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>105.3760782_0.7864162_10550_0020_40</t>
+          <t>105.2904077_0.8015820_10550_0020_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>105.4372473_0.8130832_10550_0020_41</t>
+          <t>105.1085860_-0.0124213_10550_0020_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>105.2904077_0.8015820_10550_0020_42</t>
+          <t>105.0619031_0.6087441_10550_0020_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>105.1085860_-0.0124213_10550_0020_43</t>
+          <t>105.0612332_0.7272441_10550_0020_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>105.0619031_0.6087441_10550_0020_44</t>
+          <t>105.4472489_0.4460832_10550_0020_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>105.0612332_0.7272441_10550_0020_45</t>
+          <t>105.7475907_0.5892481_10550_0020_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>105.4472489_0.4460832_10550_0020_46</t>
+          <t>105.2143821_0.0171942_10550_0020_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>105.7475907_0.5892481_10550_0020_47</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>105.2143821_0.0171942_10550_0020_48</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>105.5711048_0.4856490_10550_0020_49</t>
+          <t>105.5711048_0.4856490_10550_0020_47</t>
         </is>
       </c>
     </row>

--- a/10550_0020.xlsx
+++ b/10550_0020.xlsx
@@ -5867,131 +5867,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId230"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="231" name="Image 231" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId231"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="232" name="Image 232" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId232"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="233" name="Image 233" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId233"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="234" name="Image 234" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId234"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>599</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="235" name="Image 235" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId235"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6294,7 +6169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7083,14 +6958,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>105.7062490_0.0222487_10550_0020_18</t>
+          <t>105.7364186_0.2367483_10550_0020_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.706249</v>
+        <v>105.7364186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0222487</v>
+        <v>0.2367483</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -7099,41 +6974,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/105.7062490,0.0222487_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.7364186,0.2367483_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/105.7062490,0.0222487_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7364186,0.2367483_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/105.7062490,0.0222487_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7364186,0.2367483_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/105.7062490,0.0222487_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7364186,0.2367483_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/105.7062490,0.0222487_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7364186,0.2367483_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>105.7364186_0.2367483_10550_0020_19</t>
+          <t>105.7977563_0.4487473_10550_0020_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.7364186</v>
+        <v>105.7977563</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2367483</v>
+        <v>0.4487473</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -7142,41 +7017,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/105.7364186,0.2367483_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.7977563,0.4487473_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/105.7364186,0.2367483_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7977563,0.4487473_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/105.7364186,0.2367483_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7977563,0.4487473_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/105.7364186,0.2367483_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7977563,0.4487473_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/105.7364186,0.2367483_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7977563,0.4487473_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>105.7977563_0.4487473_10550_0020_20</t>
+          <t>105.6057528_0.5339163_10550_0020_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.7977563</v>
+        <v>105.6057528</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4487473</v>
+        <v>0.5339163</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -7185,41 +7060,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/105.7977563,0.4487473_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.6057528,0.5339163_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/105.7977563,0.4487473_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6057528,0.5339163_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/105.7977563,0.4487473_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6057528,0.5339163_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/105.7977563,0.4487473_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6057528,0.5339163_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/105.7977563,0.4487473_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6057528,0.5339163_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>105.6057528_0.5339163_10550_0020_21</t>
+          <t>105.6185861_0.4862496_10550_0020_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.6057528</v>
+        <v>105.6185861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5339163</v>
+        <v>0.4862496</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -7228,41 +7103,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/105.6057528,0.5339163_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.6185861,0.4862496_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/105.6057528,0.5339163_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6185861,0.4862496_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/105.6057528,0.5339163_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6185861,0.4862496_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/105.6057528,0.5339163_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6185861,0.4862496_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/105.6057528,0.5339163_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6185861,0.4862496_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>105.6185861_0.4862496_10550_0020_22</t>
+          <t>105.8562640_0.7430795_10550_0020_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>105.6185861</v>
+        <v>105.856264</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4862496</v>
+        <v>0.7430795</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -7271,41 +7146,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/105.6185861,0.4862496_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.8562640,0.7430795_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/105.6185861,0.4862496_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8562640,0.7430795_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/105.6185861,0.4862496_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8562640,0.7430795_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/105.6185861,0.4862496_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8562640,0.7430795_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/105.6185861,0.4862496_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8562640,0.7430795_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>105.8562640_0.7430795_10550_0020_23</t>
+          <t>105.4839160_0.8152500_10550_0020_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>105.856264</v>
+        <v>105.483916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7430795</v>
+        <v>0.81525</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -7314,41 +7189,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/105.8562640,0.7430795_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/105.8562640,0.7430795_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/105.8562640,0.7430795_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/105.8562640,0.7430795_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/105.8562640,0.7430795_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4839160,0.8152500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>105.4839160_0.8152500_10550_0020_24</t>
+          <t>105.6207551_0.8000829_10550_0020_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.483916</v>
+        <v>105.6207551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.81525</v>
+        <v>0.8000829</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -7357,41 +7232,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/105.4839160,0.8152500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6207551,0.8000829_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>105.6207551_0.8000829_10550_0020_25</t>
+          <t>105.5130838_0.6707500_10550_0020_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105.6207551</v>
+        <v>105.5130838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8000829</v>
+        <v>0.67075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -7400,41 +7275,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/105.6207551,0.8000829_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5130838,0.6707500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>105.5130838_0.6707500_10550_0020_26</t>
+          <t>105.5319176_0.5567500_10550_0020_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.5130838</v>
+        <v>105.5319176</v>
       </c>
       <c r="C27" t="n">
-        <v>0.67075</v>
+        <v>0.55675</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -7443,41 +7318,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/105.5130838,0.6707500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5319176,0.5567500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>105.5319176_0.5567500_10550_0020_27</t>
+          <t>105.5240841_0.6047500_10550_0020_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.5319176</v>
+        <v>105.5240841</v>
       </c>
       <c r="C28" t="n">
-        <v>0.55675</v>
+        <v>0.60475</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7486,41 +7361,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/105.5319176,0.5567500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5240841,0.6047500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>105.5240841_0.6047500_10550_0020_28</t>
+          <t>105.4732496_0.3519166_10550_0020_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105.5240841</v>
+        <v>105.4732496</v>
       </c>
       <c r="C29" t="n">
-        <v>0.60475</v>
+        <v>0.3519166</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -7529,41 +7404,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/105.5240841,0.6047500_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4732496,0.3519166_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>105.4732496_0.3519166_10550_0020_29</t>
+          <t>105.4365838_-0.0332501_10550_0020_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.4732496</v>
+        <v>105.4365838</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3519166</v>
+        <v>-0.0332501</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -7572,41 +7447,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/105.4732496,0.3519166_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4365838,-0.0332501_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>105.4365838_-0.0332501_10550_0020_30</t>
+          <t>105.3889170_0.0470830_10550_0020_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.4365838</v>
+        <v>105.388917</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0332501</v>
+        <v>0.047083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -7615,41 +7490,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/105.4365838,-0.0332501_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3889170,0.0470830_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>105.3889170_0.0470830_10550_0020_31</t>
+          <t>105.4277499_0.1277498_10550_0020_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.388917</v>
+        <v>105.4277499</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047083</v>
+        <v>0.1277498</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -7658,41 +7533,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/105.3889170,0.0470830_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4277499,0.1277498_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>105.4277499_0.1277498_10550_0020_32</t>
+          <t>105.3647485_0.2809161_10550_0020_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.4277499</v>
+        <v>105.3647485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1277498</v>
+        <v>0.2809161</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -7701,41 +7576,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/105.4277499,0.1277498_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3647485,0.2809161_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>105.3647485_0.2809161_10550_0020_33</t>
+          <t>105.2984131_0.3884154_10550_0020_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.3647485</v>
+        <v>105.2984131</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2809161</v>
+        <v>0.3884154</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -7744,41 +7619,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/105.3647485,0.2809161_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2984131,0.3884154_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>105.2984131_0.3884154_10550_0020_34</t>
+          <t>105.3749015_0.4830706_10550_0020_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105.2984131</v>
+        <v>105.3749015</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3884154</v>
+        <v>0.4830706</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -7787,41 +7662,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/105.2984131,0.3884154_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3749015,0.4830706_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>105.3749015_0.4830706_10550_0020_35</t>
+          <t>105.2675763_0.5982484_10550_0020_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105.3749015</v>
+        <v>105.2675763</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4830706</v>
+        <v>0.5982484</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -7830,41 +7705,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/105.3749015,0.4830706_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2675763,0.5982484_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>105.2675763_0.5982484_10550_0020_36</t>
+          <t>105.2842428_0.6497486_10550_0020_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.2675763</v>
+        <v>105.2842428</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5982484</v>
+        <v>0.6497486</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -7873,41 +7748,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/105.2675763,0.5982484_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2842428,0.6497486_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>105.2842428_0.6497486_10550_0020_37</t>
+          <t>105.3760782_0.7864162_10550_0020_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.2842428</v>
+        <v>105.3760782</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6497486</v>
+        <v>0.7864162</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -7916,41 +7791,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/105.2842428,0.6497486_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3760782,0.7864162_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>105.3760782_0.7864162_10550_0020_38</t>
+          <t>105.4372473_0.8130832_10550_0020_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>105.3760782</v>
+        <v>105.4372473</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7864162</v>
+        <v>0.8130832</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -7959,41 +7834,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/105.3760782,0.7864162_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4372473,0.8130832_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>105.4372473_0.8130832_10550_0020_39</t>
+          <t>105.2904077_0.8015820_10550_0020_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.4372473</v>
+        <v>105.2904077</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8130832</v>
+        <v>0.801582</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -8002,41 +7877,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/105.4372473,0.8130832_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2904077,0.8015820_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>105.2904077_0.8015820_10550_0020_40</t>
+          <t>105.1085860_-0.0124213_10550_0020_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.2904077</v>
+        <v>105.108586</v>
       </c>
       <c r="C41" t="n">
-        <v>0.801582</v>
+        <v>-0.0124213</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -8045,41 +7920,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/105.2904077,0.8015820_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.1085860,-0.0124213_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>105.1085860_-0.0124213_10550_0020_41</t>
+          <t>105.0619031_0.6087441_10550_0020_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>105.108586</v>
+        <v>105.0619031</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0124213</v>
+        <v>0.6087441</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -8088,41 +7963,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/105.1085860,-0.0124213_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0619031,0.6087441_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>105.0619031_0.6087441_10550_0020_42</t>
+          <t>105.0612332_0.7272441_10550_0020_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0619031</v>
+        <v>105.0612332</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6087441</v>
+        <v>0.7272440999999999</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -8131,41 +8006,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/105.0619031,0.6087441_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0612332,0.7272441_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>105.0612332_0.7272441_10550_0020_43</t>
+          <t>105.4472489_0.4460832_10550_0020_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.0612332</v>
+        <v>105.4472489</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7272440999999999</v>
+        <v>0.4460832</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -8174,41 +8049,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/105.0612332,0.7272441_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4472489,0.4460832_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>105.4472489_0.4460832_10550_0020_44</t>
+          <t>105.7475907_0.5892481_10550_0020_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>105.4472489</v>
+        <v>105.7475907</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4460832</v>
+        <v>0.5892481000000001</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -8217,41 +8092,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/105.4472489,0.4460832_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7475907,0.5892481_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>105.7475907_0.5892481_10550_0020_45</t>
+          <t>105.2143821_0.0171942_10550_0020_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.7475907</v>
+        <v>105.2143821</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5892481000000001</v>
+        <v>0.0171942</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -8260,41 +8135,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/105.7475907,0.5892481_10550_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2143821,0.0171942_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>105.2143821_0.0171942_10550_0020_46</t>
+          <t>105.5711048_0.4856490_10550_0020_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>105.2143821</v>
+        <v>105.5711048</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0171942</v>
+        <v>0.485649</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -8303,68 +8178,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_RGB-composite.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5711048,0.4856490_10550_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
-        <is>
-          <t>cuts/105.2143821,0.0171942_10550_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>105.5711048_0.4856490_10550_0020_47</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>105.5711048</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.485649</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>cuts/105.5711048,0.4856490_10550_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
         <is>
           <t>cuts/105.5711048,0.4856490_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
@@ -8381,7 +8213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R600"/>
+  <dimension ref="A1:R587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8555,210 +8387,203 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>105.7062490_0.0222487_10550_0020_18</t>
+          <t>105.7364186_0.2367483_10550_0020_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>105.7364186_0.2367483_10550_0020_19</t>
+          <t>105.7977563_0.4487473_10550_0020_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>105.7977563_0.4487473_10550_0020_20</t>
+          <t>105.6057528_0.5339163_10550_0020_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>105.6057528_0.5339163_10550_0020_21</t>
+          <t>105.6185861_0.4862496_10550_0020_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>105.6185861_0.4862496_10550_0020_22</t>
+          <t>105.8562640_0.7430795_10550_0020_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>105.8562640_0.7430795_10550_0020_23</t>
+          <t>105.4839160_0.8152500_10550_0020_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>105.4839160_0.8152500_10550_0020_24</t>
+          <t>105.6207551_0.8000829_10550_0020_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>105.6207551_0.8000829_10550_0020_25</t>
+          <t>105.5130838_0.6707500_10550_0020_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>105.5130838_0.6707500_10550_0020_26</t>
+          <t>105.5319176_0.5567500_10550_0020_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>105.5319176_0.5567500_10550_0020_27</t>
+          <t>105.5240841_0.6047500_10550_0020_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>105.5240841_0.6047500_10550_0020_28</t>
+          <t>105.4732496_0.3519166_10550_0020_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>105.4732496_0.3519166_10550_0020_29</t>
+          <t>105.4365838_-0.0332501_10550_0020_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>105.4365838_-0.0332501_10550_0020_30</t>
+          <t>105.3889170_0.0470830_10550_0020_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>105.3889170_0.0470830_10550_0020_31</t>
+          <t>105.4277499_0.1277498_10550_0020_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>105.4277499_0.1277498_10550_0020_32</t>
+          <t>105.3647485_0.2809161_10550_0020_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>105.3647485_0.2809161_10550_0020_33</t>
+          <t>105.2984131_0.3884154_10550_0020_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>105.2984131_0.3884154_10550_0020_34</t>
+          <t>105.3749015_0.4830706_10550_0020_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>105.3749015_0.4830706_10550_0020_35</t>
+          <t>105.2675763_0.5982484_10550_0020_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>105.2675763_0.5982484_10550_0020_36</t>
+          <t>105.2842428_0.6497486_10550_0020_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>105.2842428_0.6497486_10550_0020_37</t>
+          <t>105.3760782_0.7864162_10550_0020_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>105.3760782_0.7864162_10550_0020_38</t>
+          <t>105.4372473_0.8130832_10550_0020_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>105.4372473_0.8130832_10550_0020_39</t>
+          <t>105.2904077_0.8015820_10550_0020_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>105.2904077_0.8015820_10550_0020_40</t>
+          <t>105.1085860_-0.0124213_10550_0020_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>105.1085860_-0.0124213_10550_0020_41</t>
+          <t>105.0619031_0.6087441_10550_0020_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>105.0619031_0.6087441_10550_0020_42</t>
+          <t>105.0612332_0.7272441_10550_0020_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>105.0612332_0.7272441_10550_0020_43</t>
+          <t>105.4472489_0.4460832_10550_0020_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>105.4472489_0.4460832_10550_0020_44</t>
+          <t>105.7475907_0.5892481_10550_0020_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>105.7475907_0.5892481_10550_0020_45</t>
+          <t>105.2143821_0.0171942_10550_0020_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>105.2143821_0.0171942_10550_0020_46</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>105.5711048_0.4856490_10550_0020_47</t>
+          <t>105.5711048_0.4856490_10550_0020_46</t>
         </is>
       </c>
     </row>

--- a/10550_0020.xlsx
+++ b/10550_0020.xlsx
@@ -6169,7 +6169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6223,6 +6223,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6266,6 +6346,54 @@
           <t>cuts/105.4820825,0.8167500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6309,6 +6437,54 @@
           <t>cuts/106.0296045,0.7570748_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6352,6 +6528,54 @@
           <t>cuts/105.7059157,0.0210821_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6395,6 +6619,54 @@
           <t>cuts/105.2960797,0.3884154_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6438,6 +6710,54 @@
           <t>cuts/105.9819209,0.2432429_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6481,6 +6801,54 @@
           <t>cuts/105.6047547,0.8384163_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6524,6 +6892,54 @@
           <t>cuts/105.4984167,0.0687500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6567,6 +6983,54 @@
           <t>cuts/105.4277501,0.0794165_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6610,6 +7074,54 @@
           <t>cuts/105.1981641,0.6386259_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6653,6 +7165,54 @@
           <t>cuts/105.8322203,0.6107333_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6696,6 +7256,54 @@
           <t>cuts/106.0287724,0.7960748_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6739,6 +7347,54 @@
           <t>cuts/105.9339351,0.7960776_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6782,6 +7438,54 @@
           <t>cuts/105.9727592,0.7402849_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6825,6 +7529,54 @@
           <t>cuts/106.0419751,0.7472272_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6868,6 +7620,54 @@
           <t>cuts/105.9338691,0.7516285_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6911,6 +7711,54 @@
           <t>cuts/105.9273874,0.7560268_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6954,6 +7802,54 @@
           <t>cuts/105.9929238,0.3392426_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6997,6 +7893,54 @@
           <t>cuts/105.7364186,0.2367483_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7040,6 +7984,54 @@
           <t>cuts/105.7977563,0.4487473_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7083,6 +8075,54 @@
           <t>cuts/105.6057528,0.5339163_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7126,6 +8166,54 @@
           <t>cuts/105.6185861,0.4862496_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7169,6 +8257,54 @@
           <t>cuts/105.8562640,0.7430795_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7212,6 +8348,54 @@
           <t>cuts/105.4839160,0.8152500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7255,6 +8439,54 @@
           <t>cuts/105.6207551,0.8000829_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7298,6 +8530,54 @@
           <t>cuts/105.5130838,0.6707500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7341,6 +8621,54 @@
           <t>cuts/105.5319176,0.5567500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7384,6 +8712,54 @@
           <t>cuts/105.5240841,0.6047500_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7427,6 +8803,54 @@
           <t>cuts/105.4732496,0.3519166_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7470,6 +8894,54 @@
           <t>cuts/105.4365838,-0.0332501_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7513,6 +8985,54 @@
           <t>cuts/105.3889170,0.0470830_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7556,6 +9076,54 @@
           <t>cuts/105.4277499,0.1277498_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7599,6 +9167,54 @@
           <t>cuts/105.3647485,0.2809161_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7642,6 +9258,54 @@
           <t>cuts/105.2984131,0.3884154_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K34" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7685,6 +9349,54 @@
           <t>cuts/105.3749015,0.4830706_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7728,6 +9440,54 @@
           <t>cuts/105.2675763,0.5982484_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7771,6 +9531,54 @@
           <t>cuts/105.2842428,0.6497486_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K37" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7814,6 +9622,54 @@
           <t>cuts/105.3760782,0.7864162_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7857,6 +9713,54 @@
           <t>cuts/105.4372473,0.8130832_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7900,6 +9804,54 @@
           <t>cuts/105.2904077,0.8015820_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7943,6 +9895,54 @@
           <t>cuts/105.1085860,-0.0124213_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7986,6 +9986,54 @@
           <t>cuts/105.0619031,0.6087441_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8029,6 +10077,54 @@
           <t>cuts/105.0612332,0.7272441_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K43" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8072,6 +10168,54 @@
           <t>cuts/105.4472489,0.4460832_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K44" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8115,6 +10259,54 @@
           <t>cuts/105.7475907,0.5892481_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8158,6 +10350,54 @@
           <t>cuts/105.2143821,0.0171942_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.28329</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8200,6 +10440,54 @@
         <is>
           <t>cuts/105.5711048,0.4856490_10550_0020_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J47" t="n">
+        <v>4.97972</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14.3037</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.221835</v>
+      </c>
+      <c r="M47" t="n">
+        <v>8.827719999999999</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5.37513</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>31.7591</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3.14039</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.58724</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>6.58182</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.28329</v>
       </c>
     </row>
   </sheetData>
